--- a/ECON_0150/Final_Project/1PM.xlsx
+++ b/ECON_0150/Final_Project/1PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorjweidman/Library/CloudStorage/GoogleDrive-plusdirt@gmail.com/Other computers/Macbook Air/PROJECTS/tayweid.github.io/ECON_0150/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3557335D-9272-1F4D-9FAB-D85A85D967E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E85A778D-8E9F-E245-9370-B89C5468957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17560" yWindow="500" windowWidth="27240" windowHeight="16440" xr2:uid="{52CA1A0F-EDF4-8E47-A1AE-B5C39A0E0632}"/>
   </bookViews>
@@ -893,9 +893,6 @@
     <t>aes286@pitt.edu</t>
   </si>
   <si>
-    <t>How does the proportion of minimum wage workers vary across different age and ethnic groups?</t>
-  </si>
-  <si>
     <t>{"0"=&gt;"I am also willing to work alone ", "1"=&gt;"Pair me with someone"}</t>
   </si>
   <si>
@@ -1258,6 +1255,9 @@
   </si>
   <si>
     <t>Luke Haidze</t>
+  </si>
+  <si>
+    <t>Katherine</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2125,7 @@
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R1" t="s">
         <v>16</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R2" t="s">
         <v>44</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R3" t="s">
         <v>53</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R4" t="s">
         <v>62</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R5" t="s">
         <v>71</v>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R6" t="s">
         <v>53</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R7" t="s">
         <v>53</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R8" t="s">
         <v>53</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R9" t="s">
         <v>62</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R10" t="s">
         <v>112</v>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R11" t="s">
         <v>121</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R12" t="s">
         <v>129</v>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R13" t="s">
         <v>138</v>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R14" t="s">
         <v>147</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R15" t="s">
         <v>62</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R16" t="s">
         <v>164</v>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R17" t="s">
         <v>62</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R18" t="s">
         <v>62</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R19" t="s">
         <v>185</v>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R20" t="s">
         <v>194</v>
@@ -4261,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R21" t="s">
         <v>53</v>
@@ -4365,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R22" t="s">
         <v>211</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R23" t="s">
         <v>62</v>
@@ -4573,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R24" t="s">
         <v>227</v>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R25" t="s">
         <v>236</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R26" t="s">
         <v>62</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R27" t="s">
         <v>253</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="N28" s="1">
         <v>45746.521770833337</v>
@@ -4989,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S28" s="1">
         <v>45746.504988425928</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X28" s="1">
         <v>45746.507789351854</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC28" s="1">
         <v>45746.514305555553</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH28" s="1">
         <v>45746.514999999999</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM28" s="1">
         <v>45746.52306712963</v>
@@ -5048,16 +5048,16 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
         <v>266</v>
-      </c>
-      <c r="B29" t="s">
-        <v>267</v>
       </c>
       <c r="C29">
         <v>4559068</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N29" s="1">
         <v>45746.533206018517</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R29" t="s">
         <v>62</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X29" s="1">
         <v>45746.552743055552</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC29" s="1">
         <v>45746.535127314812</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="AG29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH29" s="1">
         <v>45746.536944444444</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM29" s="1">
         <v>45746.552743055552</v>
@@ -5152,16 +5152,16 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30">
         <v>4626629</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N30" s="1">
         <v>45744.428310185183</v>
@@ -5197,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S30" s="1">
         <v>45744.427048611113</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC30" s="1">
         <v>45744.429583333331</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH30" s="1">
         <v>45744.430543981478</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM30" s="1">
         <v>45744.438831018517</v>
@@ -5256,16 +5256,16 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
         <v>281</v>
-      </c>
-      <c r="B31" t="s">
-        <v>282</v>
       </c>
       <c r="C31">
         <v>4534675</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N31" s="1">
         <v>45746.534861111111</v>
@@ -5301,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S31" s="1">
         <v>45746.534861111111</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC31" s="1">
         <v>45746.534861111111</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM31" s="1">
         <v>45746.534803240742</v>
@@ -5360,16 +5360,16 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" t="s">
         <v>288</v>
-      </c>
-      <c r="B32" t="s">
-        <v>289</v>
       </c>
       <c r="C32">
         <v>4710062</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N32" s="1">
         <v>45745.63484953704</v>
@@ -5405,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S32" s="1">
         <v>45745.63484953704</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X32" s="1">
         <v>45745.63484953704</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC32" s="1">
         <v>45745.63484953704</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH32" s="1">
         <v>45745.63484953704</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM32" s="1">
         <v>45745.63484953704</v>
@@ -5464,16 +5464,16 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
         <v>297</v>
-      </c>
-      <c r="B33" t="s">
-        <v>298</v>
       </c>
       <c r="C33">
         <v>4485597</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N33" s="1">
         <v>45746.517395833333</v>
@@ -5509,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S33" s="1">
         <v>45746.498414351852</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X33" s="1">
         <v>45746.540150462963</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AC33" s="1">
         <v>45746.549837962964</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH33" s="1">
         <v>45746.541921296295</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM33" s="1">
         <v>45746.569814814815</v>
@@ -5571,19 +5571,19 @@
         <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34">
         <v>4515232</v>
       </c>
       <c r="D34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -5591,19 +5591,19 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s">
         <v>309</v>
-      </c>
-      <c r="B35" t="s">
-        <v>310</v>
       </c>
       <c r="C35">
         <v>4502856</v>
       </c>
       <c r="D35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -5611,22 +5611,22 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
         <v>312</v>
-      </c>
-      <c r="B36" t="s">
-        <v>313</v>
       </c>
       <c r="C36">
         <v>4491851</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I36">
         <v>6</v>
@@ -5634,19 +5634,19 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37">
         <v>4479869</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -5654,22 +5654,22 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" t="s">
         <v>317</v>
-      </c>
-      <c r="B38" t="s">
-        <v>318</v>
       </c>
       <c r="C38">
         <v>4462364</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -5677,22 +5677,22 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" t="s">
         <v>320</v>
-      </c>
-      <c r="B39" t="s">
-        <v>321</v>
       </c>
       <c r="C39">
         <v>4558232</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -5700,22 +5700,22 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s">
         <v>323</v>
-      </c>
-      <c r="B40" t="s">
-        <v>324</v>
       </c>
       <c r="C40">
         <v>4560072</v>
       </c>
       <c r="D40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -5723,22 +5723,22 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
         <v>326</v>
-      </c>
-      <c r="B41" t="s">
-        <v>327</v>
       </c>
       <c r="C41">
         <v>4540183</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -5746,22 +5746,22 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" t="s">
         <v>329</v>
-      </c>
-      <c r="B42" t="s">
-        <v>330</v>
       </c>
       <c r="C42">
         <v>4605340</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I42">
         <v>6</v>
@@ -5769,22 +5769,22 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
         <v>332</v>
-      </c>
-      <c r="B43" t="s">
-        <v>333</v>
       </c>
       <c r="C43">
         <v>4628570</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I43">
         <v>6</v>
@@ -5792,22 +5792,22 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" t="s">
         <v>335</v>
-      </c>
-      <c r="B44" t="s">
-        <v>336</v>
       </c>
       <c r="C44">
         <v>4626648</v>
       </c>
       <c r="D44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I44">
         <v>6</v>
@@ -5815,22 +5815,22 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" t="s">
         <v>338</v>
-      </c>
-      <c r="B45" t="s">
-        <v>339</v>
       </c>
       <c r="C45">
         <v>4645492</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I45">
         <v>6</v>
@@ -5838,22 +5838,22 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" t="s">
         <v>341</v>
-      </c>
-      <c r="B46" t="s">
-        <v>342</v>
       </c>
       <c r="C46">
         <v>4530247</v>
       </c>
       <c r="D46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I46">
         <v>6</v>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" t="s">
         <v>344</v>
-      </c>
-      <c r="B47" t="s">
-        <v>345</v>
       </c>
       <c r="C47">
         <v>4614450</v>
       </c>
       <c r="D47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I47">
         <v>6</v>
@@ -5887,19 +5887,19 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C48">
         <v>4621556</v>
       </c>
       <c r="D48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I48">
         <v>6</v>
@@ -5910,19 +5910,19 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49">
         <v>4405294</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E49" t="s">
         <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I49">
         <v>6</v>
@@ -5930,22 +5930,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" t="s">
         <v>351</v>
-      </c>
-      <c r="B50" t="s">
-        <v>352</v>
       </c>
       <c r="C50">
         <v>4752939</v>
       </c>
       <c r="D50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I50">
         <v>6</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" t="s">
         <v>354</v>
-      </c>
-      <c r="B51" t="s">
-        <v>355</v>
       </c>
       <c r="C51">
         <v>4619725</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I51">
         <v>6</v>
